--- a/Main/data.xlsx
+++ b/Main/data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Operaciones y Funciones" sheetId="2" r:id="rId1"/>
+    <sheet name="Multimedia" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -226,6 +226,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -503,12 +531,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>TEJÓN</t>
   </si>
@@ -524,12 +594,15 @@
   <si>
     <t>NIGGO</t>
   </si>
+  <si>
+    <t>WOL! (TOTAL)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,13 +640,33 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -668,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,6 +824,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,6 +853,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB19F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1013,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1040,11 +1159,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>6330</v>
+        <v>6164</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGE(A4:L4)</f>
-        <v>11.973913646950683</v>
+        <v>11.783209493348958</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1092,8 +1211,7 @@
         <v>496</v>
       </c>
       <c r="L3" s="4">
-        <f>TRUNC(AVERAGE(A3:K3))</f>
-        <v>527</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,7 +1261,7 @@
       </c>
       <c r="L4" s="10">
         <f>L3*100/data!L3</f>
-        <v>11.917684305744007</v>
+        <v>9.629234462523339</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,11 +1283,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B6" s="11">
         <f>AVERAGE(A8:L8)</f>
-        <v>2.4383347235907027</v>
+        <v>2.4064712126361476</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1217,8 +1335,7 @@
         <v>47</v>
       </c>
       <c r="L7" s="4">
-        <f>TRUNC(AVERAGE(A7:K7))</f>
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +1385,7 @@
       </c>
       <c r="L8" s="10">
         <f>L7*100/data!L7</f>
-        <v>2.2536687631027252</v>
+        <v>1.8713066316480631</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,11 +1407,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>2178</v>
+        <v>2109</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGE(A12:L12)</f>
-        <v>11.402577924229687</v>
+        <v>11.293988889940913</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1342,8 +1459,7 @@
         <v>201</v>
       </c>
       <c r="L11" s="4">
-        <f>TRUNC(AVERAGE(A11:K11))</f>
-        <v>181</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1509,7 @@
       </c>
       <c r="L12" s="10">
         <f>L11*100/data!L11</f>
-        <v>10.722748815165877</v>
+        <v>9.419680403700589</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,11 +1531,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>749</v>
+        <v>816</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGE(A16:L16)</f>
-        <v>7.149558693344324</v>
+        <v>7.4191566901679238</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1467,8 +1583,7 @@
         <v>96</v>
       </c>
       <c r="L15" s="4">
-        <f>TRUNC(AVERAGE(A15:K15))</f>
-        <v>62</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,7 +1633,7 @@
       </c>
       <c r="L16" s="10">
         <f>L15*100/data!L15</f>
-        <v>6.8508287292817682</v>
+        <v>10.086004691164973</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,11 +1655,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM(A19:L19)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="15">
         <f>AVERAGE(A20:L20)</f>
-        <v>1.1582463689217819</v>
+        <v>1.1362735130637163</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1592,8 +1707,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="4">
-        <f>TRUNC(AVERAGE(A19:K19))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,11 +1757,148 @@
       </c>
       <c r="L20" s="10">
         <f>L19*100/data!L19</f>
-        <v>0.92592592592592593</v>
+        <v>0.66225165562913912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM(A23:L23)</f>
+        <v>9649</v>
+      </c>
+      <c r="B22" s="15">
+        <f>AVERAGE(A24:L24)</f>
+        <v>8.8765167499549236</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>SUM(A3,A7,A11,A15,A19)</f>
+        <v>804</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:L23" si="0">SUM(B3,B7,B11,B15,B19)</f>
+        <v>834</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>1182</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>858</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>803</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>706</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>659</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>573</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>843</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f>A23*100/data!A23</f>
+        <v>7.912607026867434</v>
+      </c>
+      <c r="B24" s="13">
+        <f>B23*100/data!B23</f>
+        <v>8.4208400646203554</v>
+      </c>
+      <c r="C24" s="13">
+        <f>C23*100/data!C23</f>
+        <v>10.390295358649789</v>
+      </c>
+      <c r="D24" s="13">
+        <f>D23*100/data!D23</f>
+        <v>9.8121435759812137</v>
+      </c>
+      <c r="E24" s="13">
+        <f>E23*100/data!E23</f>
+        <v>9.1198979591836729</v>
+      </c>
+      <c r="F24" s="13">
+        <f>F23*100/data!F23</f>
+        <v>7.8448612739351313</v>
+      </c>
+      <c r="G24" s="13">
+        <f>G23*100/data!G23</f>
+        <v>8.1298940580377703</v>
+      </c>
+      <c r="H24" s="13">
+        <f>H23*100/data!H23</f>
+        <v>9.2617226471566347</v>
+      </c>
+      <c r="I24" s="13">
+        <f>I23*100/data!I23</f>
+        <v>10.706742485783915</v>
+      </c>
+      <c r="J24" s="13">
+        <f>J23*100/data!J23</f>
+        <v>10.365412445730826</v>
+      </c>
+      <c r="K24" s="13">
+        <f>K23*100/data!K23</f>
+        <v>7.5429491768074444</v>
+      </c>
+      <c r="L24" s="10">
+        <f>L23*100/data!L23</f>
+        <v>7.0108349267049075</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
@@ -1661,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1691,15 +1942,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>53074</v>
+        <v>52401</v>
       </c>
       <c r="B2" s="11">
-        <f>100-'Operaciones y Funciones'!B2</f>
-        <v>88.026086353049322</v>
+        <f>100-Multimedia!B2</f>
+        <v>88.216790506651037</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1746,13 +1997,12 @@
         <v>4746</v>
       </c>
       <c r="L3" s="4">
-        <f>TRUNC(AVERAGE(A3:K3))</f>
-        <v>4422</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -1789,15 +2039,15 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>22906</v>
+        <v>24044</v>
       </c>
       <c r="B6" s="11">
-        <f>100-'Operaciones y Funciones'!B6</f>
-        <v>97.5616652764093</v>
+        <f>100-Multimedia!B6</f>
+        <v>97.593528787363852</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1844,13 +2094,12 @@
         <v>2014</v>
       </c>
       <c r="L7" s="12">
-        <f>TRUNC(AVERAGE(A7:K7))</f>
-        <v>1908</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B8" s="7">
         <v>369</v>
@@ -1887,15 +2136,15 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>20263</v>
+        <v>19764</v>
       </c>
       <c r="B10" s="11">
-        <f>100-'Operaciones y Funciones'!B10</f>
-        <v>88.597422075770311</v>
+        <f>100-Multimedia!B10</f>
+        <v>88.70601111005908</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1942,13 +2191,12 @@
         <v>2854</v>
       </c>
       <c r="L11" s="4">
-        <f>TRUNC(AVERAGE(A11:K11))</f>
-        <v>1688</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -1985,15 +2233,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>10861</v>
+        <v>11235</v>
       </c>
       <c r="B14" s="11">
-        <f>100-'Operaciones y Funciones'!B14</f>
-        <v>92.850441306655682</v>
+        <f>100-Multimedia!B14</f>
+        <v>92.580843309832076</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2040,13 +2288,12 @@
         <v>1238</v>
       </c>
       <c r="L15" s="4">
-        <f>TRUNC(AVERAGE(A15:K15))</f>
-        <v>905</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -2083,15 +2330,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>2601</v>
+        <v>2536</v>
       </c>
       <c r="B18" s="11">
-        <f>100-'Operaciones y Funciones'!B18</f>
-        <v>98.84175363107822</v>
+        <f>100-Multimedia!B18</f>
+        <v>98.863726486936287</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2138,13 +2385,12 @@
         <v>324</v>
       </c>
       <c r="L19" s="4">
-        <f>TRUNC(AVERAGE(A19:K19))</f>
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -2161,6 +2407,115 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>SUM(A23:L23)</f>
+        <v>109980</v>
+      </c>
+      <c r="B22" s="11">
+        <f>100-Multimedia!B22</f>
+        <v>91.123483250045069</v>
+      </c>
+      <c r="C22" s="3">
+        <f>TRUNC(A22/A24)</f>
+        <v>301</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>SUM(A3,A7,A11,A15,A19)</f>
+        <v>10161</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" ref="B23:L23" si="0">SUM(B3,B7,B11,B15,B19)</f>
+        <v>9904</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>11376</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>11924</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>9408</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>10236</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="0"/>
+        <v>8684</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>6014</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>6155</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>5528</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>11176</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>365</v>
+      </c>
+      <c r="B24" s="7">
+        <v>369</v>
+      </c>
+      <c r="C24" s="7">
+        <v>369</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -2176,8 +2531,12 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A13:L13"/>
